--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93DE12BA-2895-4741-96CA-207151CD5AD9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1137CC-7F4F-4141-81D8-A7C2BED3D108}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1578,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1701,11 +1701,20 @@
       <c r="C41" t="s">
         <v>4</v>
       </c>
+      <c r="D41" s="2">
+        <v>43408</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43411</v>
+      </c>
       <c r="F41">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -1762,7 +1771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1776,7 +1785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -1792,7 +1801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -2537,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>75</v>
       </c>
@@ -2551,7 +2560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -2580,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -2594,7 +2603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>226</v>
       </c>
@@ -2610,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>134</v>
       </c>
@@ -2625,7 +2634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -2640,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>135</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>216</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -2703,7 +2712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>150</v>
       </c>
@@ -2718,7 +2727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>151</v>
       </c>
@@ -2728,13 +2737,20 @@
       <c r="C110" t="s">
         <v>4</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="D110" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E110" s="2">
+        <v>43410</v>
+      </c>
       <c r="F110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>76</v>
       </c>
@@ -2744,11 +2760,20 @@
       <c r="C111" t="s">
         <v>4</v>
       </c>
+      <c r="D111" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E111" s="2">
+        <v>43410</v>
+      </c>
       <c r="F111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -2758,9 +2783,17 @@
       <c r="C112" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E112" s="2">
+        <v>43410</v>
+      </c>
       <c r="F112">
         <v>2</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -2773,8 +2806,17 @@
       <c r="C113" t="s">
         <v>4</v>
       </c>
+      <c r="D113" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E113" s="2">
+        <v>43410</v>
+      </c>
       <c r="F113">
         <v>2</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -2787,8 +2829,17 @@
       <c r="C114" t="s">
         <v>4</v>
       </c>
+      <c r="D114" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E114" s="2">
+        <v>43410</v>
+      </c>
       <c r="F114">
         <v>2</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -2801,10 +2852,17 @@
       <c r="C115" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+      <c r="D115" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E115" s="2">
+        <v>43410</v>
+      </c>
       <c r="F115">
         <v>2</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -2817,8 +2875,17 @@
       <c r="C116" t="s">
         <v>4</v>
       </c>
+      <c r="D116" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E116" s="2">
+        <v>43410</v>
+      </c>
       <c r="F116">
         <v>2</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -2831,8 +2898,17 @@
       <c r="C117" t="s">
         <v>4</v>
       </c>
+      <c r="D117" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E117" s="2">
+        <v>43410</v>
+      </c>
       <c r="F117">
         <v>2</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -2845,9 +2921,17 @@
       <c r="C118" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E118" s="2">
+        <v>43410</v>
+      </c>
       <c r="F118">
         <v>2</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -2860,8 +2944,17 @@
       <c r="C119" t="s">
         <v>4</v>
       </c>
+      <c r="D119" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E119" s="2">
+        <v>43410</v>
+      </c>
       <c r="F119">
         <v>2</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -2874,10 +2967,17 @@
       <c r="C120" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="D120" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E120" s="2">
+        <v>43410</v>
+      </c>
       <c r="F120">
         <v>2</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -2890,10 +2990,17 @@
       <c r="C121" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="D121" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E121" s="2">
+        <v>43410</v>
+      </c>
       <c r="F121">
         <v>2</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -2906,10 +3013,17 @@
       <c r="C122" t="s">
         <v>4</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="D122" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E122" s="2">
+        <v>43410</v>
+      </c>
       <c r="F122">
         <v>2</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -2922,8 +3036,17 @@
       <c r="C123" t="s">
         <v>4</v>
       </c>
+      <c r="D123" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E123" s="2">
+        <v>43410</v>
+      </c>
       <c r="F123">
         <v>2</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -2936,12 +3059,18 @@
       <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="D124" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E124" s="2">
+        <v>43410</v>
+      </c>
       <c r="F124" s="1">
         <v>1</v>
       </c>
-      <c r="G124" s="1"/>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -2953,9 +3082,17 @@
       <c r="C125" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E125" s="2">
+        <v>43410</v>
+      </c>
       <c r="F125">
         <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -2968,10 +3105,17 @@
       <c r="C126" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="D126" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E126" s="2">
+        <v>43410</v>
+      </c>
       <c r="F126">
         <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -2984,10 +3128,17 @@
       <c r="C127" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="D127" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E127" s="2">
+        <v>43410</v>
+      </c>
       <c r="F127">
         <v>1</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -3000,13 +3151,20 @@
       <c r="C128" t="s">
         <v>4</v>
       </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="D128" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E128" s="2">
+        <v>43410</v>
+      </c>
       <c r="F128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -3016,11 +3174,20 @@
       <c r="C129" t="s">
         <v>4</v>
       </c>
+      <c r="D129" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E129" s="2">
+        <v>43410</v>
+      </c>
       <c r="F129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>95</v>
       </c>
@@ -3030,11 +3197,20 @@
       <c r="C130" t="s">
         <v>4</v>
       </c>
+      <c r="D130" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E130" s="2">
+        <v>43410</v>
+      </c>
       <c r="F130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>62</v>
       </c>
@@ -3044,11 +3220,20 @@
       <c r="C131" t="s">
         <v>4</v>
       </c>
+      <c r="D131" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E131" s="2">
+        <v>43410</v>
+      </c>
       <c r="F131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>52</v>
       </c>
@@ -3058,11 +3243,20 @@
       <c r="C132" t="s">
         <v>4</v>
       </c>
+      <c r="D132" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E132" s="2">
+        <v>43410</v>
+      </c>
       <c r="F132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -3072,13 +3266,20 @@
       <c r="C133" t="s">
         <v>4</v>
       </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="D133" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E133" s="2">
+        <v>43410</v>
+      </c>
       <c r="F133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>89</v>
       </c>
@@ -3088,11 +3289,20 @@
       <c r="C134" t="s">
         <v>4</v>
       </c>
+      <c r="D134" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E134" s="2">
+        <v>43410</v>
+      </c>
       <c r="F134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>66</v>
       </c>
@@ -3102,11 +3312,20 @@
       <c r="C135" t="s">
         <v>4</v>
       </c>
+      <c r="D135" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E135" s="2">
+        <v>43410</v>
+      </c>
       <c r="F135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -3116,11 +3335,20 @@
       <c r="C136" t="s">
         <v>4</v>
       </c>
+      <c r="D136" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E136" s="2">
+        <v>43410</v>
+      </c>
       <c r="F136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -3130,13 +3358,20 @@
       <c r="C137" t="s">
         <v>4</v>
       </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="D137" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E137" s="2">
+        <v>43410</v>
+      </c>
       <c r="F137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -3146,12 +3381,20 @@
       <c r="C138" t="s">
         <v>4</v>
       </c>
-      <c r="D138" s="2"/>
+      <c r="D138" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E138" s="2">
+        <v>43410</v>
+      </c>
       <c r="F138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>186</v>
       </c>
@@ -3161,13 +3404,20 @@
       <c r="C139" t="s">
         <v>4</v>
       </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="D139" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E139" s="2">
+        <v>43410</v>
+      </c>
       <c r="F139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -3177,13 +3427,20 @@
       <c r="C140" t="s">
         <v>4</v>
       </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="D140" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E140" s="2">
+        <v>43410</v>
+      </c>
       <c r="F140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>83</v>
       </c>
@@ -3193,11 +3450,20 @@
       <c r="C141" t="s">
         <v>4</v>
       </c>
+      <c r="D141" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E141" s="2">
+        <v>43410</v>
+      </c>
       <c r="F141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>213</v>
       </c>
@@ -3207,13 +3473,20 @@
       <c r="C142" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="D142" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E142" s="2">
+        <v>43410</v>
+      </c>
       <c r="F142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>214</v>
       </c>
@@ -3223,13 +3496,20 @@
       <c r="C143" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="D143" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E143" s="2">
+        <v>43410</v>
+      </c>
       <c r="F143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -3239,8 +3519,17 @@
       <c r="C144" t="s">
         <v>4</v>
       </c>
+      <c r="D144" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E144" s="2">
+        <v>43410</v>
+      </c>
       <c r="F144">
         <v>1</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -3253,9 +3542,17 @@
       <c r="C145" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E145" s="2">
+        <v>43410</v>
+      </c>
       <c r="F145">
         <v>1</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -3268,10 +3565,17 @@
       <c r="C146" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+      <c r="D146" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E146" s="2">
+        <v>43410</v>
+      </c>
       <c r="F146">
         <v>1</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -3284,8 +3588,17 @@
       <c r="C147" t="s">
         <v>4</v>
       </c>
+      <c r="D147" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E147" s="2">
+        <v>43410</v>
+      </c>
       <c r="F147">
         <v>1</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -3298,8 +3611,17 @@
       <c r="C148" t="s">
         <v>4</v>
       </c>
+      <c r="D148" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E148" s="2">
+        <v>43410</v>
+      </c>
       <c r="F148">
         <v>1</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -3312,9 +3634,17 @@
       <c r="C149" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="2"/>
+      <c r="D149" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E149" s="2">
+        <v>43410</v>
+      </c>
       <c r="F149">
         <v>1</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -3327,9 +3657,17 @@
       <c r="C150" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="2"/>
+      <c r="D150" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E150" s="2">
+        <v>43410</v>
+      </c>
       <c r="F150">
         <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1137CC-7F4F-4141-81D8-A7C2BED3D108}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F621CA-3AD2-E746-A366-4D3F1C990B48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2055,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -2167,13 +2167,20 @@
       <c r="C72" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="D72" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E72" s="2">
+        <v>43411</v>
+      </c>
       <c r="F72">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -2183,13 +2190,20 @@
       <c r="C73" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="D73" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E73" s="2">
+        <v>43411</v>
+      </c>
       <c r="F73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>42</v>
       </c>
@@ -2199,11 +2213,20 @@
       <c r="C74" t="s">
         <v>4</v>
       </c>
+      <c r="D74" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E74" s="2">
+        <v>43411</v>
+      </c>
       <c r="F74">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -2213,11 +2236,20 @@
       <c r="C75" t="s">
         <v>4</v>
       </c>
+      <c r="D75" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E75" s="2">
+        <v>43411</v>
+      </c>
       <c r="F75">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -2227,11 +2259,20 @@
       <c r="C76" t="s">
         <v>4</v>
       </c>
+      <c r="D76" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E76" s="2">
+        <v>43411</v>
+      </c>
       <c r="F76">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -2241,11 +2282,20 @@
       <c r="C77" t="s">
         <v>4</v>
       </c>
+      <c r="D77" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43411</v>
+      </c>
       <c r="F77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -2255,11 +2305,20 @@
       <c r="C78" t="s">
         <v>4</v>
       </c>
+      <c r="D78" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E78" s="2">
+        <v>43411</v>
+      </c>
       <c r="F78">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -2269,12 +2328,20 @@
       <c r="C79" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E79" s="2">
+        <v>43411</v>
+      </c>
       <c r="F79">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -2284,13 +2351,20 @@
       <c r="C80" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="D80" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43411</v>
+      </c>
       <c r="F80">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -2300,13 +2374,20 @@
       <c r="C81" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="D81" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E81" s="2">
+        <v>43411</v>
+      </c>
       <c r="F81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -2316,12 +2397,20 @@
       <c r="C82" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E82" s="2">
+        <v>43411</v>
+      </c>
       <c r="F82">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -2331,11 +2420,20 @@
       <c r="C83" t="s">
         <v>4</v>
       </c>
+      <c r="D83" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E83" s="2">
+        <v>43411</v>
+      </c>
       <c r="F83">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>140</v>
       </c>
@@ -2345,12 +2443,20 @@
       <c r="C84" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E84" s="2">
+        <v>43411</v>
+      </c>
       <c r="F84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -2360,13 +2466,20 @@
       <c r="C85" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="D85" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E85" s="2">
+        <v>43411</v>
+      </c>
       <c r="F85">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -2376,12 +2489,20 @@
       <c r="C86" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E86" s="2">
+        <v>43411</v>
+      </c>
       <c r="F86">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>232</v>
       </c>
@@ -2391,13 +2512,20 @@
       <c r="C87" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="D87" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E87" s="2">
+        <v>43411</v>
+      </c>
       <c r="F87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2407,11 +2535,20 @@
       <c r="C88" t="s">
         <v>4</v>
       </c>
+      <c r="D88" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E88" s="2">
+        <v>43411</v>
+      </c>
       <c r="F88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>116</v>
       </c>
@@ -2421,12 +2558,20 @@
       <c r="C89" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E89" s="2">
+        <v>43411</v>
+      </c>
       <c r="F89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>223</v>
       </c>
@@ -2436,13 +2581,20 @@
       <c r="C90" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="D90" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E90" s="2">
+        <v>43411</v>
+      </c>
       <c r="F90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -2452,11 +2604,20 @@
       <c r="C91" t="s">
         <v>4</v>
       </c>
+      <c r="D91" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E91" s="2">
+        <v>43411</v>
+      </c>
       <c r="F91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>208</v>
       </c>
@@ -2466,13 +2627,20 @@
       <c r="C92" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="D92" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43411</v>
+      </c>
       <c r="F92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>133</v>
       </c>
@@ -2482,12 +2650,20 @@
       <c r="C93" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E93" s="2">
+        <v>43411</v>
+      </c>
       <c r="F93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -2497,12 +2673,20 @@
       <c r="C94" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E94" s="2">
+        <v>43411</v>
+      </c>
       <c r="F94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>90</v>
       </c>
@@ -2512,11 +2696,20 @@
       <c r="C95" t="s">
         <v>4</v>
       </c>
+      <c r="D95" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E95" s="2">
+        <v>43411</v>
+      </c>
       <c r="F95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -2526,10 +2719,17 @@
       <c r="C96" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="D96" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E96" s="2">
+        <v>43411</v>
+      </c>
       <c r="F96">
         <v>4</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2542,8 +2742,17 @@
       <c r="C97" t="s">
         <v>4</v>
       </c>
+      <c r="D97" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E97" s="2">
+        <v>43411</v>
+      </c>
       <c r="F97">
         <v>4</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2556,8 +2765,17 @@
       <c r="C98" t="s">
         <v>4</v>
       </c>
+      <c r="D98" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E98" s="2">
+        <v>43411</v>
+      </c>
       <c r="F98">
         <v>4</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -2570,9 +2788,17 @@
       <c r="C99" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E99" s="2">
+        <v>43411</v>
+      </c>
       <c r="F99">
         <v>3</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2585,8 +2811,17 @@
       <c r="C100" t="s">
         <v>4</v>
       </c>
+      <c r="D100" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E100" s="2">
+        <v>43411</v>
+      </c>
       <c r="F100">
         <v>3</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2599,8 +2834,17 @@
       <c r="C101" t="s">
         <v>4</v>
       </c>
+      <c r="D101" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E101" s="2">
+        <v>43411</v>
+      </c>
       <c r="F101">
         <v>3</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2613,10 +2857,17 @@
       <c r="C102" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="D102" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E102" s="2">
+        <v>43411</v>
+      </c>
       <c r="F102">
         <v>3</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2629,9 +2880,17 @@
       <c r="C103" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E103" s="2">
+        <v>43411</v>
+      </c>
       <c r="F103">
         <v>3</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -2644,9 +2903,17 @@
       <c r="C104" t="s">
         <v>4</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E104" s="2">
+        <v>43411</v>
+      </c>
       <c r="F104">
         <v>3</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -2659,9 +2926,17 @@
       <c r="C105" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E105" s="2">
+        <v>43411</v>
+      </c>
       <c r="F105">
         <v>3</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -2674,10 +2949,17 @@
       <c r="C106" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="D106" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E106" s="2">
+        <v>43411</v>
+      </c>
       <c r="F106">
         <v>3</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -2690,10 +2972,17 @@
       <c r="C107" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="D107" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E107" s="2">
+        <v>43411</v>
+      </c>
       <c r="F107">
         <v>3</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -2706,10 +2995,17 @@
       <c r="C108" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="D108" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E108" s="2">
+        <v>43411</v>
+      </c>
       <c r="F108">
         <v>3</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -2722,9 +3018,17 @@
       <c r="C109" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2">
+        <v>43410</v>
+      </c>
+      <c r="E109" s="2">
+        <v>43411</v>
+      </c>
       <c r="F109">
         <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F621CA-3AD2-E746-A366-4D3F1C990B48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7E2777-B805-B445-88F8-95763E7FFC0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,8 +1150,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2">
+        <v>43417</v>
+      </c>
       <c r="F2">
         <v>2319</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1178,8 +1184,14 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="2">
+        <v>43417</v>
+      </c>
       <c r="F4">
         <v>948</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1192,8 +1204,14 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="2">
+        <v>43417</v>
+      </c>
       <c r="F5">
         <v>705</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1220,8 +1238,14 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
+      <c r="D7" s="2">
+        <v>43417</v>
+      </c>
       <c r="F7">
         <v>654</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1262,8 +1286,14 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
+      <c r="D10" s="2">
+        <v>43417</v>
+      </c>
       <c r="F10">
         <v>409</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1304,8 +1334,14 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
+      <c r="D13" s="2">
+        <v>43417</v>
+      </c>
       <c r="F13">
         <v>320</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1350,7 +1386,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1400,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1378,7 +1414,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1428,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1406,7 +1442,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1420,7 +1456,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1434,7 +1470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1448,7 +1484,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -1463,7 +1499,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -1478,7 +1514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1488,11 +1524,17 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
+      <c r="D26" s="2">
+        <v>43417</v>
+      </c>
       <c r="F26">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -1507,7 +1549,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1521,7 +1563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1535,7 +1577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1591,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>168</v>
       </c>
@@ -1564,7 +1606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1644,8 +1686,14 @@
       <c r="C37" t="s">
         <v>4</v>
       </c>
+      <c r="D37" s="2">
+        <v>43417</v>
+      </c>
       <c r="F37">
         <v>37</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1686,9 +1734,14 @@
       <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2">
+        <v>43417</v>
+      </c>
       <c r="F40">
         <v>35</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1724,8 +1777,14 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
+      <c r="D42" s="2">
+        <v>43417</v>
+      </c>
       <c r="F42">
         <v>34</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1738,8 +1797,14 @@
       <c r="C43" t="s">
         <v>4</v>
       </c>
+      <c r="D43" s="2">
+        <v>43417</v>
+      </c>
       <c r="F43">
         <v>32</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1816,7 +1881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -1830,7 +1895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -1845,7 +1910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -1860,7 +1925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1874,7 +1939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -1889,7 +1954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -1899,12 +1964,20 @@
       <c r="C54" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E54" s="2">
+        <v>43417</v>
+      </c>
       <c r="F54">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -1914,13 +1987,20 @@
       <c r="C55" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E55" s="2">
+        <v>43417</v>
+      </c>
       <c r="F55">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>196</v>
       </c>
@@ -1930,13 +2010,20 @@
       <c r="C56" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E56" s="2">
+        <v>43417</v>
+      </c>
       <c r="F56">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -1946,13 +2033,20 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="D57" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E57" s="2">
+        <v>43417</v>
+      </c>
       <c r="F57">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1962,11 +2056,20 @@
       <c r="C58" t="s">
         <v>4</v>
       </c>
+      <c r="D58" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43417</v>
+      </c>
       <c r="F58">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -1976,11 +2079,20 @@
       <c r="C59" t="s">
         <v>4</v>
       </c>
+      <c r="D59" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43417</v>
+      </c>
       <c r="F59">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -1990,12 +2102,20 @@
       <c r="C60" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43417</v>
+      </c>
       <c r="F60">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2005,11 +2125,20 @@
       <c r="C61" t="s">
         <v>4</v>
       </c>
+      <c r="D61" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43417</v>
+      </c>
       <c r="F61">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2019,11 +2148,20 @@
       <c r="C62" t="s">
         <v>4</v>
       </c>
+      <c r="D62" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E62" s="2">
+        <v>43417</v>
+      </c>
       <c r="F62">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -2033,13 +2171,20 @@
       <c r="C63" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="D63" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E63" s="2">
+        <v>43417</v>
+      </c>
       <c r="F63">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>234</v>
       </c>
@@ -2049,10 +2194,17 @@
       <c r="C64" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E64" s="2">
+        <v>43417</v>
+      </c>
       <c r="F64">
         <v>11</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2065,8 +2217,17 @@
       <c r="C65" t="s">
         <v>4</v>
       </c>
+      <c r="D65" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E65" s="2">
+        <v>43417</v>
+      </c>
       <c r="F65">
         <v>10</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2079,8 +2240,17 @@
       <c r="C66" t="s">
         <v>4</v>
       </c>
+      <c r="D66" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E66" s="2">
+        <v>43417</v>
+      </c>
       <c r="F66">
         <v>10</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2093,10 +2263,17 @@
       <c r="C67" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="D67" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E67" s="2">
+        <v>43417</v>
+      </c>
       <c r="F67">
         <v>10</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2109,8 +2286,17 @@
       <c r="C68" t="s">
         <v>4</v>
       </c>
+      <c r="D68" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E68" s="2">
+        <v>43417</v>
+      </c>
       <c r="F68">
         <v>10</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2123,8 +2309,17 @@
       <c r="C69" t="s">
         <v>4</v>
       </c>
+      <c r="D69" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E69" s="2">
+        <v>43417</v>
+      </c>
       <c r="F69">
         <v>9</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2137,8 +2332,17 @@
       <c r="C70" t="s">
         <v>4</v>
       </c>
+      <c r="D70" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E70" s="2">
+        <v>43417</v>
+      </c>
       <c r="F70">
         <v>9</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2151,10 +2355,17 @@
       <c r="C71" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="D71" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E71" s="2">
+        <v>43417</v>
+      </c>
       <c r="F71">
         <v>8</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7E2777-B805-B445-88F8-95763E7FFC0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADFEFCA5-60D8-7548-94BD-E07217EF665A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="243">
   <si>
     <t>references</t>
   </si>
@@ -741,13 +741,19 @@
     <t>date finished</t>
   </si>
   <si>
-    <t>number of unfiltered results</t>
-  </si>
-  <si>
-    <t>number included in dataset</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>number of unfiltered results (PMC)</t>
+  </si>
+  <si>
+    <t>number included in dataset (PMC)</t>
+  </si>
+  <si>
+    <t>number of unfiltered results (PubMed)</t>
+  </si>
+  <si>
+    <t>number included in dataset (PubMed)</t>
   </si>
 </sst>
 </file>
@@ -783,10 +789,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="K188" sqref="K188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1121,7 @@
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1131,16 +1138,28 @@
         <v>237</v>
       </c>
       <c r="F1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" t="s">
         <v>238</v>
       </c>
-      <c r="G1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1157,10 +1176,10 @@
         <v>2319</v>
       </c>
       <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1174,7 +1193,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1191,10 +1210,10 @@
         <v>948</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1211,10 +1230,10 @@
         <v>705</v>
       </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1224,11 +1243,17 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="2">
+        <v>43427</v>
+      </c>
       <c r="F6">
         <v>667</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1245,10 +1270,10 @@
         <v>654</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1258,11 +1283,17 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
+      <c r="D8" s="2">
+        <v>43427</v>
+      </c>
       <c r="F8">
         <v>608</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1272,11 +1303,17 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
+      <c r="D9" s="2">
+        <v>43427</v>
+      </c>
       <c r="F9">
         <v>411</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1293,10 +1330,10 @@
         <v>409</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1310,7 +1347,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1361,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1344,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1395,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1409,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1396,8 +1433,14 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
+      <c r="D17" s="2">
+        <v>43427</v>
+      </c>
       <c r="F17">
         <v>243</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1424,8 +1467,14 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
+      <c r="D19" s="2">
+        <v>43420</v>
+      </c>
       <c r="F19">
         <v>219</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1452,8 +1501,14 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
+      <c r="D21" s="2">
+        <v>43427</v>
+      </c>
       <c r="F21">
         <v>186</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1573,8 +1628,15 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
+      <c r="D29" s="2">
+        <v>43427</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29">
         <v>86</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1620,7 +1682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1634,7 +1696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1648,7 +1710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1662,7 +1724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1676,7 +1738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1696,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1706,11 +1768,17 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
+      <c r="D38" s="2">
+        <v>43427</v>
+      </c>
       <c r="F38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1720,11 +1788,17 @@
       <c r="C39" t="s">
         <v>4</v>
       </c>
+      <c r="D39" s="2">
+        <v>43420</v>
+      </c>
       <c r="F39">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -1737,14 +1811,17 @@
       <c r="D40" s="2">
         <v>43417</v>
       </c>
+      <c r="E40" s="2">
+        <v>43431</v>
+      </c>
       <c r="F40">
         <v>35</v>
       </c>
       <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1767,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1780,6 +1857,9 @@
       <c r="D42" s="2">
         <v>43417</v>
       </c>
+      <c r="E42" s="2">
+        <v>43431</v>
+      </c>
       <c r="F42">
         <v>34</v>
       </c>
@@ -1787,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -1800,14 +1880,17 @@
       <c r="D43" s="2">
         <v>43417</v>
       </c>
+      <c r="E43" s="2">
+        <v>43427</v>
+      </c>
       <c r="F43">
         <v>32</v>
       </c>
       <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1817,11 +1900,20 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
+      <c r="D44" s="2">
+        <v>43427</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43427</v>
+      </c>
       <c r="F44">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -1831,12 +1923,20 @@
       <c r="C45" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2">
+        <v>43427</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43427</v>
+      </c>
       <c r="F45">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1846,11 +1946,26 @@
       <c r="C46" t="s">
         <v>4</v>
       </c>
+      <c r="D46" s="2">
+        <v>43424</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43424</v>
+      </c>
       <c r="F46">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>43417</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -1860,13 +1975,20 @@
       <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2">
+        <v>43424</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43424</v>
+      </c>
       <c r="F47">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -1876,9 +1998,17 @@
       <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2">
+        <v>43424</v>
+      </c>
+      <c r="E48" s="2">
+        <v>43424</v>
+      </c>
       <c r="F48">
         <v>21</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1891,8 +2021,17 @@
       <c r="C49" t="s">
         <v>4</v>
       </c>
+      <c r="D49" s="2">
+        <v>43424</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43424</v>
+      </c>
       <c r="F49">
         <v>20</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1905,9 +2044,17 @@
       <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2">
+        <v>43420</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43420</v>
+      </c>
       <c r="F50">
         <v>19</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1920,9 +2067,17 @@
       <c r="C51" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>43420</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43420</v>
+      </c>
       <c r="F51">
         <v>19</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1935,8 +2090,17 @@
       <c r="C52" t="s">
         <v>4</v>
       </c>
+      <c r="D52" s="2">
+        <v>43420</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43420</v>
+      </c>
       <c r="F52">
         <v>19</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1949,9 +2113,17 @@
       <c r="C53" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <v>43420</v>
+      </c>
+      <c r="E53" s="2">
+        <v>43420</v>
+      </c>
       <c r="F53">
         <v>18</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4783,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -4806,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>153</v>
       </c>
@@ -4829,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>129</v>
       </c>
@@ -4852,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -4875,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>46</v>
       </c>
@@ -4898,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>87</v>
       </c>
@@ -4921,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>48</v>
       </c>
@@ -4944,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>88</v>
       </c>
@@ -4967,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>119</v>
       </c>
@@ -4990,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>154</v>
       </c>
@@ -5013,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>130</v>
       </c>
@@ -5036,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>180</v>
       </c>
@@ -5059,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>224</v>
       </c>
@@ -5081,8 +5253,14 @@
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>106</v>
       </c>
@@ -5104,8 +5282,14 @@
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>72</v>
       </c>
@@ -5127,8 +5311,14 @@
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>182</v>
       </c>
@@ -5150,8 +5340,14 @@
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>225</v>
       </c>
@@ -5173,8 +5369,14 @@
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>54</v>
       </c>
@@ -5196,8 +5398,14 @@
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>73</v>
       </c>
@@ -5219,8 +5427,14 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>131</v>
       </c>
@@ -5242,8 +5456,14 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>67</v>
       </c>
@@ -5265,8 +5485,14 @@
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -5288,8 +5514,14 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -5311,8 +5543,14 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>107</v>
       </c>
@@ -5334,8 +5572,14 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>139</v>
       </c>
@@ -5357,8 +5601,14 @@
       <c r="G201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>156</v>
       </c>
@@ -5380,8 +5630,14 @@
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>184</v>
       </c>
@@ -5403,8 +5659,14 @@
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>159</v>
       </c>
@@ -5426,8 +5688,14 @@
       <c r="G204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -5449,8 +5717,14 @@
       <c r="G205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>141</v>
       </c>
@@ -5472,8 +5746,14 @@
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>187</v>
       </c>
@@ -5495,8 +5775,14 @@
       <c r="G207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -5518,8 +5804,14 @@
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>160</v>
       </c>
@@ -5541,8 +5833,14 @@
       <c r="G209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>188</v>
       </c>
@@ -5564,8 +5862,14 @@
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -5587,8 +5891,14 @@
       <c r="G211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>229</v>
       </c>
@@ -5610,8 +5920,14 @@
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>192</v>
       </c>
@@ -5633,8 +5949,14 @@
       <c r="G213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>162</v>
       </c>
@@ -5656,8 +5978,14 @@
       <c r="G214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>230</v>
       </c>
@@ -5679,8 +6007,14 @@
       <c r="G215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>142</v>
       </c>
@@ -5702,8 +6036,14 @@
       <c r="G216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>110</v>
       </c>
@@ -5725,8 +6065,14 @@
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>163</v>
       </c>
@@ -5748,8 +6094,14 @@
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>143</v>
       </c>
@@ -5771,8 +6123,14 @@
       <c r="G219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>193</v>
       </c>
@@ -5794,8 +6152,14 @@
       <c r="G220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>144</v>
       </c>
@@ -5817,8 +6181,14 @@
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>215</v>
       </c>
@@ -5840,8 +6210,14 @@
       <c r="G222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>122</v>
       </c>
@@ -5863,8 +6239,14 @@
       <c r="G223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>194</v>
       </c>
@@ -5886,8 +6268,14 @@
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>195</v>
       </c>
@@ -5909,8 +6297,14 @@
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -5932,8 +6326,14 @@
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>92</v>
       </c>
@@ -5955,8 +6355,14 @@
       <c r="G227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>197</v>
       </c>
@@ -5978,8 +6384,14 @@
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>147</v>
       </c>
@@ -6001,8 +6413,14 @@
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>199</v>
       </c>
@@ -6024,8 +6442,14 @@
       <c r="G230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>217</v>
       </c>
@@ -6047,8 +6471,20 @@
       <c r="G231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H231" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I231" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>113</v>
       </c>
@@ -6070,8 +6506,20 @@
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H232" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I232" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J232" s="3">
+        <v>0</v>
+      </c>
+      <c r="K232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>201</v>
       </c>
@@ -6091,6 +6539,18 @@
         <v>0</v>
       </c>
       <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I233" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J233" s="3">
+        <v>0</v>
+      </c>
+      <c r="K233" s="3">
         <v>0</v>
       </c>
     </row>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADFEFCA5-60D8-7548-94BD-E07217EF665A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD64D314-ED53-F14D-B8C2-D88169DD8FA6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="K188" sqref="K188"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="M151" sqref="M151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>68</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>91</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>123</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>136</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -4379,8 +4379,20 @@
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I151" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>218</v>
       </c>
@@ -4402,8 +4414,20 @@
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I152" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>203</v>
       </c>
@@ -4425,8 +4449,20 @@
       <c r="G153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I153" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>137</v>
       </c>
@@ -4448,8 +4484,20 @@
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I154" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -4471,8 +4519,20 @@
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I155" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>93</v>
       </c>
@@ -4494,8 +4554,20 @@
       <c r="G156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I156" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -4517,8 +4589,20 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I157" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>204</v>
       </c>
@@ -4540,8 +4624,20 @@
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I158" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -4563,8 +4659,20 @@
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I159" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -4586,8 +4694,20 @@
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I160" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>138</v>
       </c>
@@ -4609,8 +4729,20 @@
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I161" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>127</v>
       </c>
@@ -4632,8 +4764,20 @@
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I162" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>206</v>
       </c>
@@ -4655,8 +4799,20 @@
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I163" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>221</v>
       </c>
@@ -4678,8 +4834,20 @@
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I164" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>175</v>
       </c>
@@ -4701,8 +4869,20 @@
       <c r="G165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I165" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>104</v>
       </c>
@@ -4724,8 +4904,20 @@
       <c r="G166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I166" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>117</v>
       </c>
@@ -4747,8 +4939,20 @@
       <c r="G167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I167" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>207</v>
       </c>
@@ -4770,8 +4974,20 @@
       <c r="G168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I168" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -4793,8 +5009,20 @@
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I169" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>70</v>
       </c>
@@ -4816,8 +5044,20 @@
       <c r="G170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I170" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>71</v>
       </c>
@@ -4839,8 +5079,20 @@
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I171" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>78</v>
       </c>
@@ -4862,8 +5114,20 @@
       <c r="G172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I172" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -4885,8 +5149,20 @@
       <c r="G173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I173" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>128</v>
       </c>
@@ -4908,8 +5184,20 @@
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I174" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>105</v>
       </c>
@@ -4931,8 +5219,20 @@
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I175" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>79</v>
       </c>
@@ -4952,6 +5252,18 @@
         <v>0</v>
       </c>
       <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I176" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
         <v>0</v>
       </c>
     </row>
@@ -4977,6 +5289,18 @@
       <c r="G177">
         <v>0</v>
       </c>
+      <c r="H177" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I177" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -5000,6 +5324,18 @@
       <c r="G178">
         <v>0</v>
       </c>
+      <c r="H178" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I178" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -5023,6 +5359,18 @@
       <c r="G179">
         <v>0</v>
       </c>
+      <c r="H179" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I179" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -5046,6 +5394,18 @@
       <c r="G180">
         <v>0</v>
       </c>
+      <c r="H180" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I180" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -5069,6 +5429,18 @@
       <c r="G181">
         <v>0</v>
       </c>
+      <c r="H181" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I181" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -5092,6 +5464,18 @@
       <c r="G182">
         <v>0</v>
       </c>
+      <c r="H182" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I182" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -5115,6 +5499,18 @@
       <c r="G183">
         <v>0</v>
       </c>
+      <c r="H183" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I183" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -5138,6 +5534,18 @@
       <c r="G184">
         <v>0</v>
       </c>
+      <c r="H184" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I184" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
@@ -5161,6 +5569,18 @@
       <c r="G185">
         <v>0</v>
       </c>
+      <c r="H185" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I185" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -5184,6 +5604,18 @@
       <c r="G186">
         <v>0</v>
       </c>
+      <c r="H186" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I186" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -5207,6 +5639,18 @@
       <c r="G187">
         <v>0</v>
       </c>
+      <c r="H187" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I187" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -5230,6 +5674,18 @@
       <c r="G188">
         <v>0</v>
       </c>
+      <c r="H188" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I188" s="2">
+        <v>43431</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -5253,6 +5709,12 @@
       <c r="G189">
         <v>0</v>
       </c>
+      <c r="H189" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I189" s="2">
+        <v>43431</v>
+      </c>
       <c r="J189">
         <v>0</v>
       </c>
@@ -5282,6 +5744,12 @@
       <c r="G190">
         <v>0</v>
       </c>
+      <c r="H190" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I190" s="2">
+        <v>43431</v>
+      </c>
       <c r="J190">
         <v>0</v>
       </c>
@@ -5311,6 +5779,12 @@
       <c r="G191">
         <v>0</v>
       </c>
+      <c r="H191" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I191" s="2">
+        <v>43431</v>
+      </c>
       <c r="J191">
         <v>0</v>
       </c>
@@ -5340,6 +5814,12 @@
       <c r="G192">
         <v>0</v>
       </c>
+      <c r="H192" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I192" s="2">
+        <v>43431</v>
+      </c>
       <c r="J192">
         <v>0</v>
       </c>
@@ -5369,6 +5849,12 @@
       <c r="G193">
         <v>0</v>
       </c>
+      <c r="H193" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I193" s="2">
+        <v>43431</v>
+      </c>
       <c r="J193">
         <v>0</v>
       </c>
@@ -5398,6 +5884,12 @@
       <c r="G194">
         <v>0</v>
       </c>
+      <c r="H194" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I194" s="2">
+        <v>43431</v>
+      </c>
       <c r="J194">
         <v>0</v>
       </c>
@@ -5427,6 +5919,12 @@
       <c r="G195">
         <v>0</v>
       </c>
+      <c r="H195" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I195" s="2">
+        <v>43431</v>
+      </c>
       <c r="J195">
         <v>0</v>
       </c>
@@ -5456,6 +5954,12 @@
       <c r="G196">
         <v>0</v>
       </c>
+      <c r="H196" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I196" s="2">
+        <v>43431</v>
+      </c>
       <c r="J196">
         <v>0</v>
       </c>
@@ -5485,6 +5989,12 @@
       <c r="G197">
         <v>0</v>
       </c>
+      <c r="H197" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I197" s="2">
+        <v>43431</v>
+      </c>
       <c r="J197">
         <v>0</v>
       </c>
@@ -5514,6 +6024,12 @@
       <c r="G198">
         <v>0</v>
       </c>
+      <c r="H198" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I198" s="2">
+        <v>43431</v>
+      </c>
       <c r="J198">
         <v>0</v>
       </c>
@@ -5543,6 +6059,12 @@
       <c r="G199">
         <v>0</v>
       </c>
+      <c r="H199" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I199" s="2">
+        <v>43431</v>
+      </c>
       <c r="J199">
         <v>0</v>
       </c>
@@ -5572,6 +6094,12 @@
       <c r="G200">
         <v>0</v>
       </c>
+      <c r="H200" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I200" s="2">
+        <v>43431</v>
+      </c>
       <c r="J200">
         <v>0</v>
       </c>
@@ -5601,6 +6129,12 @@
       <c r="G201" s="1">
         <v>0</v>
       </c>
+      <c r="H201" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I201" s="2">
+        <v>43431</v>
+      </c>
       <c r="J201">
         <v>0</v>
       </c>
@@ -5630,6 +6164,12 @@
       <c r="G202">
         <v>0</v>
       </c>
+      <c r="H202" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I202" s="2">
+        <v>43431</v>
+      </c>
       <c r="J202">
         <v>0</v>
       </c>
@@ -5659,6 +6199,12 @@
       <c r="G203">
         <v>0</v>
       </c>
+      <c r="H203" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I203" s="2">
+        <v>43431</v>
+      </c>
       <c r="J203">
         <v>0</v>
       </c>
@@ -5688,6 +6234,12 @@
       <c r="G204">
         <v>0</v>
       </c>
+      <c r="H204" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I204" s="2">
+        <v>43431</v>
+      </c>
       <c r="J204">
         <v>0</v>
       </c>
@@ -5717,6 +6269,12 @@
       <c r="G205">
         <v>0</v>
       </c>
+      <c r="H205" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I205" s="2">
+        <v>43431</v>
+      </c>
       <c r="J205">
         <v>0</v>
       </c>
@@ -5746,6 +6304,12 @@
       <c r="G206">
         <v>0</v>
       </c>
+      <c r="H206" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I206" s="2">
+        <v>43431</v>
+      </c>
       <c r="J206">
         <v>0</v>
       </c>
@@ -5775,6 +6339,12 @@
       <c r="G207">
         <v>0</v>
       </c>
+      <c r="H207" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I207" s="2">
+        <v>43431</v>
+      </c>
       <c r="J207">
         <v>0</v>
       </c>
@@ -5804,6 +6374,12 @@
       <c r="G208">
         <v>0</v>
       </c>
+      <c r="H208" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I208" s="2">
+        <v>43431</v>
+      </c>
       <c r="J208">
         <v>0</v>
       </c>
@@ -5833,6 +6409,12 @@
       <c r="G209">
         <v>0</v>
       </c>
+      <c r="H209" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I209" s="2">
+        <v>43431</v>
+      </c>
       <c r="J209">
         <v>0</v>
       </c>
@@ -5862,6 +6444,12 @@
       <c r="G210">
         <v>0</v>
       </c>
+      <c r="H210" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I210" s="2">
+        <v>43431</v>
+      </c>
       <c r="J210">
         <v>0</v>
       </c>
@@ -5891,6 +6479,12 @@
       <c r="G211">
         <v>0</v>
       </c>
+      <c r="H211" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I211" s="2">
+        <v>43431</v>
+      </c>
       <c r="J211">
         <v>0</v>
       </c>
@@ -5920,6 +6514,12 @@
       <c r="G212">
         <v>0</v>
       </c>
+      <c r="H212" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I212" s="2">
+        <v>43431</v>
+      </c>
       <c r="J212">
         <v>0</v>
       </c>
@@ -5949,6 +6549,12 @@
       <c r="G213">
         <v>0</v>
       </c>
+      <c r="H213" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I213" s="2">
+        <v>43431</v>
+      </c>
       <c r="J213">
         <v>0</v>
       </c>
@@ -5978,6 +6584,12 @@
       <c r="G214">
         <v>0</v>
       </c>
+      <c r="H214" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I214" s="2">
+        <v>43431</v>
+      </c>
       <c r="J214">
         <v>0</v>
       </c>
@@ -6007,6 +6619,12 @@
       <c r="G215">
         <v>0</v>
       </c>
+      <c r="H215" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I215" s="2">
+        <v>43431</v>
+      </c>
       <c r="J215">
         <v>0</v>
       </c>
@@ -6036,6 +6654,12 @@
       <c r="G216">
         <v>0</v>
       </c>
+      <c r="H216" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I216" s="2">
+        <v>43431</v>
+      </c>
       <c r="J216">
         <v>0</v>
       </c>
@@ -6065,6 +6689,12 @@
       <c r="G217">
         <v>0</v>
       </c>
+      <c r="H217" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I217" s="2">
+        <v>43431</v>
+      </c>
       <c r="J217">
         <v>0</v>
       </c>
@@ -6094,6 +6724,12 @@
       <c r="G218">
         <v>0</v>
       </c>
+      <c r="H218" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I218" s="2">
+        <v>43431</v>
+      </c>
       <c r="J218">
         <v>0</v>
       </c>
@@ -6123,6 +6759,12 @@
       <c r="G219">
         <v>0</v>
       </c>
+      <c r="H219" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I219" s="2">
+        <v>43431</v>
+      </c>
       <c r="J219">
         <v>0</v>
       </c>
@@ -6152,6 +6794,12 @@
       <c r="G220">
         <v>0</v>
       </c>
+      <c r="H220" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I220" s="2">
+        <v>43431</v>
+      </c>
       <c r="J220">
         <v>0</v>
       </c>
@@ -6181,6 +6829,12 @@
       <c r="G221">
         <v>0</v>
       </c>
+      <c r="H221" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I221" s="2">
+        <v>43431</v>
+      </c>
       <c r="J221">
         <v>0</v>
       </c>
@@ -6210,6 +6864,12 @@
       <c r="G222">
         <v>0</v>
       </c>
+      <c r="H222" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I222" s="2">
+        <v>43431</v>
+      </c>
       <c r="J222">
         <v>0</v>
       </c>
@@ -6239,6 +6899,12 @@
       <c r="G223">
         <v>0</v>
       </c>
+      <c r="H223" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I223" s="2">
+        <v>43431</v>
+      </c>
       <c r="J223">
         <v>0</v>
       </c>
@@ -6268,6 +6934,12 @@
       <c r="G224">
         <v>0</v>
       </c>
+      <c r="H224" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I224" s="2">
+        <v>43431</v>
+      </c>
       <c r="J224">
         <v>0</v>
       </c>
@@ -6297,6 +6969,12 @@
       <c r="G225">
         <v>0</v>
       </c>
+      <c r="H225" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I225" s="2">
+        <v>43431</v>
+      </c>
       <c r="J225">
         <v>0</v>
       </c>
@@ -6326,6 +7004,12 @@
       <c r="G226">
         <v>0</v>
       </c>
+      <c r="H226" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I226" s="2">
+        <v>43431</v>
+      </c>
       <c r="J226">
         <v>0</v>
       </c>
@@ -6355,6 +7039,12 @@
       <c r="G227">
         <v>0</v>
       </c>
+      <c r="H227" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I227" s="2">
+        <v>43431</v>
+      </c>
       <c r="J227">
         <v>0</v>
       </c>
@@ -6384,6 +7074,12 @@
       <c r="G228">
         <v>0</v>
       </c>
+      <c r="H228" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I228" s="2">
+        <v>43431</v>
+      </c>
       <c r="J228">
         <v>0</v>
       </c>
@@ -6413,6 +7109,12 @@
       <c r="G229">
         <v>0</v>
       </c>
+      <c r="H229" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I229" s="2">
+        <v>43431</v>
+      </c>
       <c r="J229">
         <v>0</v>
       </c>
@@ -6441,6 +7143,12 @@
       </c>
       <c r="G230">
         <v>0</v>
+      </c>
+      <c r="H230" s="2">
+        <v>43431</v>
+      </c>
+      <c r="I230" s="2">
+        <v>43431</v>
       </c>
       <c r="J230">
         <v>0</v>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD64D314-ED53-F14D-B8C2-D88169DD8FA6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE53EB66-5179-6D43-B142-D1FE1DAFA350}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,12 +769,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -789,11 +801,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="M151" sqref="M151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,7 +1190,10 @@
         <v>2319</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1192,6 +1209,9 @@
       <c r="F3">
         <v>977</v>
       </c>
+      <c r="J3">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1212,6 +1232,9 @@
       <c r="G4">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1230,7 +1253,10 @@
         <v>705</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1252,6 +1278,9 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1272,6 +1301,9 @@
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="J7">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1292,6 +1324,9 @@
       <c r="G8">
         <v>2</v>
       </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1310,7 +1345,10 @@
         <v>411</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1332,6 +1370,9 @@
       <c r="G10">
         <v>2</v>
       </c>
+      <c r="J10">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1346,6 +1387,9 @@
       <c r="F11">
         <v>404</v>
       </c>
+      <c r="J11">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1360,6 +1404,9 @@
       <c r="F12">
         <v>382</v>
       </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1378,7 +1425,10 @@
         <v>320</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1391,8 +1441,17 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
+      <c r="D14" s="2">
+        <v>43438</v>
+      </c>
       <c r="F14">
         <v>283</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1408,6 +1467,9 @@
       <c r="F15">
         <v>270</v>
       </c>
+      <c r="J15">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1419,11 +1481,20 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
+      <c r="D16" s="2">
+        <v>43432</v>
+      </c>
       <c r="F16">
         <v>265</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1440,10 +1511,13 @@
         <v>243</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1456,8 +1530,11 @@
       <c r="F18">
         <v>219</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1476,8 +1553,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1490,8 +1570,11 @@
       <c r="F20">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1510,8 +1593,11 @@
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1524,8 +1610,20 @@
       <c r="F22">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I22" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1538,8 +1636,11 @@
       <c r="F23">
         <v>131</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -1553,8 +1654,11 @@
       <c r="F24">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -1568,8 +1672,20 @@
       <c r="F25">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I25" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1588,8 +1704,11 @@
       <c r="G26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -1603,8 +1722,11 @@
       <c r="F27">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1617,8 +1739,11 @@
       <c r="F28">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1638,8 +1763,11 @@
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1652,8 +1780,11 @@
       <c r="F30">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>168</v>
       </c>
@@ -1667,8 +1798,11 @@
       <c r="F31">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1680,6 +1814,9 @@
       </c>
       <c r="F32">
         <v>59</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1692,8 +1829,29 @@
       <c r="C33" t="s">
         <v>4</v>
       </c>
+      <c r="D33" s="2">
+        <v>43438</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43438</v>
+      </c>
       <c r="F33">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I33" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1706,8 +1864,20 @@
       <c r="C34" t="s">
         <v>4</v>
       </c>
+      <c r="D34" s="2">
+        <v>43437</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43437</v>
+      </c>
       <c r="F34">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1720,8 +1890,20 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
+      <c r="D35" s="2">
+        <v>43437</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43437</v>
+      </c>
       <c r="F35">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1734,8 +1916,20 @@
       <c r="C36" t="s">
         <v>4</v>
       </c>
+      <c r="D36" s="2">
+        <v>43436</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43436</v>
+      </c>
       <c r="F36">
         <v>38</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1751,11 +1945,17 @@
       <c r="D37" s="2">
         <v>43417</v>
       </c>
+      <c r="E37" s="2">
+        <v>43436</v>
+      </c>
       <c r="F37">
         <v>37</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1771,11 +1971,17 @@
       <c r="D38" s="2">
         <v>43427</v>
       </c>
+      <c r="E38" s="2">
+        <v>43436</v>
+      </c>
       <c r="F38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>1</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1791,11 +1997,17 @@
       <c r="D39" s="2">
         <v>43420</v>
       </c>
+      <c r="E39" s="2">
+        <v>43436</v>
+      </c>
       <c r="F39">
         <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1820,6 +2032,18 @@
       <c r="G40">
         <v>2</v>
       </c>
+      <c r="H40" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I40" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -1843,6 +2067,18 @@
       <c r="G41">
         <v>3</v>
       </c>
+      <c r="H41" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I41" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1866,6 +2102,18 @@
       <c r="G42">
         <v>2</v>
       </c>
+      <c r="H42" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I42" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -1889,6 +2137,18 @@
       <c r="G43">
         <v>2</v>
       </c>
+      <c r="H43" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I43" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -1912,6 +2172,18 @@
       <c r="G44">
         <v>1</v>
       </c>
+      <c r="H44" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I44" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -1935,6 +2207,18 @@
       <c r="G45">
         <v>0</v>
       </c>
+      <c r="H45" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I45" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1961,7 +2245,13 @@
       <c r="H46" s="2">
         <v>43417</v>
       </c>
-      <c r="K46">
+      <c r="I46" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1987,6 +2277,18 @@
       <c r="G47">
         <v>0</v>
       </c>
+      <c r="H47" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I47" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -2010,8 +2312,20 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I48" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -2033,8 +2347,20 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I49" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2056,8 +2382,20 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I50" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -2079,8 +2417,20 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I51" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2102,8 +2452,20 @@
       <c r="G52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I52" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -2125,8 +2487,20 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I53" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2148,8 +2522,20 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I54" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -2171,8 +2557,20 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I55" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>196</v>
       </c>
@@ -2194,8 +2592,20 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I56" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -2217,8 +2627,20 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I57" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2240,8 +2662,11 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2263,8 +2688,11 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2286,8 +2714,11 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2309,8 +2740,12 @@
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I61" s="2"/>
+      <c r="J61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2332,8 +2767,20 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I62" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -2355,8 +2802,20 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I63" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>234</v>
       </c>
@@ -2378,8 +2837,20 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I64" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -2401,8 +2872,20 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I65" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -2424,8 +2907,20 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I66" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -2447,8 +2942,20 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I67" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -2470,8 +2977,20 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I68" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -2493,8 +3012,20 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I69" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2516,8 +3047,11 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -2539,8 +3073,20 @@
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I71" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -2562,8 +3108,20 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I72" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -2585,8 +3143,20 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I73" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>42</v>
       </c>
@@ -2608,8 +3178,20 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I74" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -2631,8 +3213,20 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I75" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -2654,8 +3248,20 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I76" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -2677,8 +3283,20 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I77" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -2700,8 +3318,20 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I78" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -2723,8 +3353,20 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I79" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -2746,8 +3388,20 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -2769,8 +3423,20 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I81" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -2792,8 +3458,20 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I82" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -2815,8 +3493,20 @@
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I83" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>140</v>
       </c>
@@ -2838,8 +3528,20 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I84" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -2861,8 +3563,20 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I85" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -2884,8 +3598,20 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I86" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>232</v>
       </c>
@@ -2907,8 +3633,20 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I87" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3668,20 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I88" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>116</v>
       </c>
@@ -2953,8 +3703,20 @@
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I89" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>223</v>
       </c>
@@ -2976,8 +3738,20 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I90" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -2999,8 +3773,20 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I91" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>208</v>
       </c>
@@ -3022,8 +3808,20 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I92" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>133</v>
       </c>
@@ -3045,8 +3843,20 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I93" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -3068,8 +3878,20 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I94" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>90</v>
       </c>
@@ -3091,8 +3913,20 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I95" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -3114,8 +3948,20 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I96" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>39</v>
       </c>
@@ -3137,8 +3983,20 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I97" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>75</v>
       </c>
@@ -3160,8 +4018,20 @@
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I98" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -3183,8 +4053,20 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I99" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -3206,8 +4088,20 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I100" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -3229,8 +4123,20 @@
       <c r="G101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I101" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>226</v>
       </c>
@@ -3252,8 +4158,20 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I102" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>134</v>
       </c>
@@ -3275,8 +4193,20 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I103" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -3298,8 +4228,20 @@
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I104" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>135</v>
       </c>
@@ -3321,8 +4263,20 @@
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I105" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>216</v>
       </c>
@@ -3344,8 +4298,20 @@
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I106" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>233</v>
       </c>
@@ -3367,8 +4333,20 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I107" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -3390,8 +4368,20 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I108" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>150</v>
       </c>
@@ -3413,8 +4403,20 @@
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I109" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>151</v>
       </c>
@@ -3436,8 +4438,20 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I110" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>76</v>
       </c>
@@ -3459,8 +4473,20 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I111" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -3482,8 +4508,20 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I112" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>80</v>
       </c>
@@ -3505,8 +4543,20 @@
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I113" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>63</v>
       </c>
@@ -3528,8 +4578,20 @@
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I114" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>179</v>
       </c>
@@ -3551,8 +4613,20 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I115" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +4648,20 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I116" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>64</v>
       </c>
@@ -3597,8 +4683,20 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I117" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3620,8 +4718,20 @@
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I118" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>82</v>
       </c>
@@ -3643,8 +4753,20 @@
       <c r="G119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I119" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -3666,8 +4788,20 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I120" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>185</v>
       </c>
@@ -3689,8 +4823,20 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I121" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>227</v>
       </c>
@@ -3712,8 +4858,20 @@
       <c r="G122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I122" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>86</v>
       </c>
@@ -3735,8 +4893,20 @@
       <c r="G123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I123" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>205</v>
       </c>
@@ -3758,8 +4928,20 @@
       <c r="G124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I124" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>235</v>
       </c>
@@ -3781,8 +4963,20 @@
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I125" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -3804,8 +4998,20 @@
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I126" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>174</v>
       </c>
@@ -3827,8 +5033,20 @@
       <c r="G127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I127" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>222</v>
       </c>
@@ -3850,8 +5068,20 @@
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I128" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -3873,8 +5103,20 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I129" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>95</v>
       </c>
@@ -3896,8 +5138,20 @@
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I130" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>62</v>
       </c>
@@ -3919,8 +5173,20 @@
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I131" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>52</v>
       </c>
@@ -3942,8 +5208,20 @@
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I132" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>181</v>
       </c>
@@ -3965,8 +5243,20 @@
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I133" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>89</v>
       </c>
@@ -3988,8 +5278,20 @@
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I134" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>66</v>
       </c>
@@ -4011,8 +5313,20 @@
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I135" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -4034,8 +5348,20 @@
       <c r="G136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I136" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -4057,8 +5383,20 @@
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I137" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -4080,8 +5418,20 @@
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I138" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>186</v>
       </c>
@@ -4103,8 +5453,20 @@
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I139" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -4126,8 +5488,20 @@
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I140" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>83</v>
       </c>
@@ -4149,8 +5523,20 @@
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I141" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>213</v>
       </c>
@@ -4172,8 +5558,20 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I142" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>214</v>
       </c>
@@ -4195,8 +5593,20 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I143" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>85</v>
       </c>
@@ -4216,6 +5626,18 @@
         <v>1</v>
       </c>
       <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I144" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
         <v>0</v>
       </c>
     </row>
@@ -4241,6 +5663,18 @@
       <c r="G145">
         <v>0</v>
       </c>
+      <c r="H145" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I145" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
@@ -4264,6 +5698,18 @@
       <c r="G146">
         <v>0</v>
       </c>
+      <c r="H146" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I146" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
@@ -4287,6 +5733,18 @@
       <c r="G147">
         <v>0</v>
       </c>
+      <c r="H147" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I147" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
@@ -4310,6 +5768,18 @@
       <c r="G148">
         <v>0</v>
       </c>
+      <c r="H148" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I148" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
@@ -4333,6 +5803,18 @@
       <c r="G149">
         <v>0</v>
       </c>
+      <c r="H149" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I149" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -4354,6 +5836,18 @@
         <v>1</v>
       </c>
       <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>43438</v>
+      </c>
+      <c r="I150" s="2">
+        <v>43438</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
         <v>0</v>
       </c>
     </row>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE53EB66-5179-6D43-B142-D1FE1DAFA350}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76E2E87-6306-924A-ACFA-02697D241D00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1125,7 +1126,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1191,7 @@
         <v>2319</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>237</v>
@@ -1206,8 +1207,14 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="2">
+        <v>43470</v>
+      </c>
       <c r="F3">
         <v>977</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
       <c r="J3">
         <v>58</v>
@@ -1253,7 +1260,7 @@
         <v>705</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <v>54</v>
@@ -1276,7 +1283,7 @@
         <v>667</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J6">
         <v>74</v>
@@ -1322,7 +1329,7 @@
         <v>608</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>42</v>
@@ -1384,8 +1391,14 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
+      <c r="D11" s="2">
+        <v>43462</v>
+      </c>
       <c r="F11">
         <v>404</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
       </c>
       <c r="J11">
         <v>28</v>
@@ -1464,8 +1477,14 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
+      <c r="D15" s="2">
+        <v>43456</v>
+      </c>
       <c r="F15">
         <v>270</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="J15">
         <v>31</v>
@@ -1488,7 +1507,7 @@
         <v>265</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <v>38</v>
@@ -1668,9 +1687,14 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>43470</v>
+      </c>
       <c r="F25">
         <v>112</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
       </c>
       <c r="H25" s="2">
         <v>43438</v>
@@ -1698,11 +1722,14 @@
       <c r="D26" s="2">
         <v>43417</v>
       </c>
+      <c r="E26" s="2">
+        <v>43470</v>
+      </c>
       <c r="F26">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>8</v>
@@ -1718,9 +1745,17 @@
       <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>43462</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43462</v>
+      </c>
       <c r="F27">
         <v>90</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="J27">
         <v>7</v>
@@ -1736,8 +1771,17 @@
       <c r="C28" t="s">
         <v>4</v>
       </c>
+      <c r="D28" s="2">
+        <v>43456</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43461</v>
+      </c>
       <c r="F28">
         <v>87</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
       </c>
       <c r="J28">
         <v>8</v>
@@ -1756,12 +1800,14 @@
       <c r="D29" s="2">
         <v>43427</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>43455</v>
+      </c>
       <c r="F29">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -1777,8 +1823,17 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
+      <c r="D30" s="2">
+        <v>43454</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43454</v>
+      </c>
       <c r="F30">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1794,9 +1849,17 @@
       <c r="C31" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>43454</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43454</v>
+      </c>
       <c r="F31">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="J31">
         <v>4</v>
@@ -1812,8 +1875,17 @@
       <c r="C32" t="s">
         <v>4</v>
       </c>
+      <c r="D32" s="2">
+        <v>43454</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43454</v>
+      </c>
       <c r="F32">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -1836,7 +1908,7 @@
         <v>43438</v>
       </c>
       <c r="F33">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3911,7 +3983,7 @@
         <v>4</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="2">
         <v>43438</v>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76E2E87-6306-924A-ACFA-02697D241D00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D62F15-A899-0C4E-97EA-AF3FA7FEC413}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1191,7 @@
         <v>2319</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>237</v>
@@ -1214,7 +1214,7 @@
         <v>977</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <v>58</v>
@@ -1260,7 +1260,7 @@
         <v>705</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <v>54</v>
@@ -1283,7 +1283,7 @@
         <v>667</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>74</v>
@@ -1306,7 +1306,7 @@
         <v>654</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>58</v>
@@ -1352,7 +1352,7 @@
         <v>411</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>57</v>
@@ -1375,7 +1375,7 @@
         <v>409</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>36</v>
@@ -1530,7 +1530,7 @@
         <v>243</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>10</v>
@@ -1586,8 +1586,17 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
+      <c r="D20" s="2">
+        <v>43475</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43475</v>
+      </c>
       <c r="F20">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -1606,11 +1615,14 @@
       <c r="D21" s="2">
         <v>43427</v>
       </c>
+      <c r="E21" s="2">
+        <v>43475</v>
+      </c>
       <c r="F21">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>13</v>
@@ -1626,8 +1638,17 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
+      <c r="D22" s="2">
+        <v>43475</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43475</v>
+      </c>
       <c r="F22">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22" s="2">
         <v>43438</v>
@@ -1652,8 +1673,17 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
+      <c r="D23" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43474</v>
+      </c>
       <c r="F23">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
       </c>
       <c r="J23">
         <v>7</v>
@@ -1669,9 +1699,17 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>43473</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43473</v>
+      </c>
       <c r="F24">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1690,11 +1728,14 @@
       <c r="D25" s="2">
         <v>43470</v>
       </c>
+      <c r="E25" s="2">
+        <v>43473</v>
+      </c>
       <c r="F25">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2">
         <v>43438</v>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D62F15-A899-0C4E-97EA-AF3FA7FEC413}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5518CBBB-03D9-424B-A254-67355663A204}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1126,7 +1125,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1190,7 @@
         <v>2319</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J2">
         <v>237</v>
@@ -1260,7 +1259,7 @@
         <v>705</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>54</v>
@@ -1306,7 +1305,7 @@
         <v>654</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>58</v>
@@ -1329,7 +1328,7 @@
         <v>608</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8">
         <v>42</v>
@@ -1375,7 +1374,7 @@
         <v>409</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J10">
         <v>36</v>
@@ -1414,8 +1413,14 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
+      <c r="D12" s="2">
+        <v>43481</v>
+      </c>
       <c r="F12">
         <v>382</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -1435,7 +1440,7 @@
         <v>43417</v>
       </c>
       <c r="F13">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1457,8 +1462,11 @@
       <c r="D14" s="2">
         <v>43438</v>
       </c>
+      <c r="E14" s="2">
+        <v>43494</v>
+      </c>
       <c r="F14">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1480,11 +1488,14 @@
       <c r="D15" s="2">
         <v>43456</v>
       </c>
+      <c r="E15" s="2">
+        <v>43494</v>
+      </c>
       <c r="F15">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <v>31</v>
@@ -1503,11 +1514,14 @@
       <c r="D16" s="2">
         <v>43432</v>
       </c>
+      <c r="E16" s="2">
+        <v>43494</v>
+      </c>
       <c r="F16">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>38</v>
@@ -1526,8 +1540,11 @@
       <c r="D17" s="2">
         <v>43427</v>
       </c>
+      <c r="E17" s="2">
+        <v>43493</v>
+      </c>
       <c r="F17">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1546,8 +1563,17 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
+      <c r="D18" s="2">
+        <v>43478</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43493</v>
+      </c>
       <c r="F18">
-        <v>219</v>
+        <v>228</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1566,11 +1592,14 @@
       <c r="D19" s="2">
         <v>43420</v>
       </c>
+      <c r="E19" s="2">
+        <v>43478</v>
+      </c>
       <c r="F19">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J19">
         <v>18</v>
@@ -2117,7 +2146,7 @@
         <v>36</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -2703,7 +2732,7 @@
         <v>17</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2">
         <v>43438</v>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5518CBBB-03D9-424B-A254-67355663A204}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{964E8724-8E1C-5044-AE36-937037552D52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1443,7 +1443,7 @@
         <v>329</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>18</v>
@@ -2094,7 +2094,7 @@
         <v>37</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J37">
         <v>2</v>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{964E8724-8E1C-5044-AE36-937037552D52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C3B18F-91C7-7A41-AAFF-D51FE4D8F8F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1190,7 @@
         <v>2319</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <v>237</v>
@@ -1259,7 +1259,7 @@
         <v>705</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J5">
         <v>54</v>
@@ -1305,7 +1305,7 @@
         <v>654</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>58</v>
@@ -1328,7 +1328,7 @@
         <v>608</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>42</v>
@@ -1374,7 +1374,7 @@
         <v>409</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J10">
         <v>36</v>
@@ -1416,11 +1416,14 @@
       <c r="D12" s="2">
         <v>43481</v>
       </c>
+      <c r="E12" s="2">
+        <v>43522</v>
+      </c>
       <c r="F12">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -1439,11 +1442,14 @@
       <c r="D13" s="2">
         <v>43417</v>
       </c>
+      <c r="E13" s="2">
+        <v>43521</v>
+      </c>
       <c r="F13">
         <v>329</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J13">
         <v>18</v>
@@ -1469,7 +1475,7 @@
         <v>296</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>11</v>
@@ -1573,7 +1579,7 @@
         <v>228</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1981,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2">
         <v>43438</v>
@@ -2042,7 +2048,7 @@
         <v>50</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>4</v>
@@ -2094,7 +2100,7 @@
         <v>37</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -2732,7 +2738,7 @@
         <v>17</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="2">
         <v>43438</v>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C3B18F-91C7-7A41-AAFF-D51FE4D8F8F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F932D885-7ACF-0E4E-B04A-73A31D461368}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1190,7 @@
         <v>2319</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>237</v>
@@ -1259,7 +1259,7 @@
         <v>705</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5">
         <v>54</v>
@@ -1282,7 +1282,7 @@
         <v>667</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>74</v>
@@ -1328,7 +1328,7 @@
         <v>608</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J8">
         <v>42</v>
@@ -1397,7 +1397,7 @@
         <v>404</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>28</v>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F932D885-7ACF-0E4E-B04A-73A31D461368}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{805839D5-0F90-914B-9665-2E65F70E6724}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1190,7 @@
         <v>2319</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2">
         <v>237</v>
@@ -1259,7 +1259,7 @@
         <v>705</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5">
         <v>54</v>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{805839D5-0F90-914B-9665-2E65F70E6724}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A37FAB-2304-4D45-B15D-7050E65EA4A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="660" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1190,7 @@
         <v>2319</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>237</v>
@@ -1213,7 +1213,7 @@
         <v>977</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>58</v>
@@ -1259,7 +1259,7 @@
         <v>705</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>54</v>
@@ -1282,7 +1282,7 @@
         <v>667</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>74</v>
@@ -1305,7 +1305,7 @@
         <v>654</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <v>58</v>
@@ -1324,11 +1324,14 @@
       <c r="D8" s="2">
         <v>43427</v>
       </c>
+      <c r="E8" s="2">
+        <v>43589</v>
+      </c>
       <c r="F8">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>42</v>
@@ -1347,11 +1350,14 @@
       <c r="D9" s="2">
         <v>43427</v>
       </c>
+      <c r="E9" s="2">
+        <v>43588</v>
+      </c>
       <c r="F9">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J9">
         <v>57</v>
@@ -1370,11 +1376,14 @@
       <c r="D10" s="2">
         <v>43417</v>
       </c>
+      <c r="E10" s="2">
+        <v>43587</v>
+      </c>
       <c r="F10">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>36</v>
@@ -1393,11 +1402,14 @@
       <c r="D11" s="2">
         <v>43462</v>
       </c>
+      <c r="E11" s="2">
+        <v>43559</v>
+      </c>
       <c r="F11">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J11">
         <v>28</v>
@@ -1423,7 +1435,7 @@
         <v>400</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -1527,7 +1539,7 @@
         <v>272</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16">
         <v>38</v>
@@ -1718,7 +1730,7 @@
         <v>134</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>7</v>
@@ -1805,7 +1817,7 @@
         <v>104</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J26">
         <v>8</v>
@@ -2213,7 +2225,7 @@
         <v>34</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2">
         <v>43438</v>
@@ -2283,7 +2295,7 @@
         <v>32</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="2">
         <v>43438</v>
@@ -2834,7 +2846,7 @@
         <v>16</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <v>1</v>

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A37FAB-2304-4D45-B15D-7050E65EA4A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05E6130-1715-094D-A0F2-4E34172D50D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="660" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="640" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,117 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Catherine Schluth</author>
+  </authors>
+  <commentList>
+    <comment ref="K46" authorId="0" shapeId="0" xr:uid="{27DCB418-560B-144E-B976-B5EB1A6A7061}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schluth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Green highlight = appeared in search but was already found in PMC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K47" authorId="0" shapeId="0" xr:uid="{05C18AF2-3A88-EB46-ABBF-F26895BA1054}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schluth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Did not appear in a search but was referenced in another article</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K61" authorId="0" shapeId="0" xr:uid="{B9999643-DB0E-8C47-8EDA-3FBD7E4A0905}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schluth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>One source found on PMC, one not</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="254">
   <si>
     <t>references</t>
   </si>
@@ -754,19 +863,65 @@
   </si>
   <si>
     <t>number included in dataset (PubMed)</t>
+  </si>
+  <si>
+    <t>One of these from PMC</t>
+  </si>
+  <si>
+    <t>Two of these from PMC</t>
+  </si>
+  <si>
+    <t>Three of these from PMC</t>
+  </si>
+  <si>
+    <t>Ten of these from PMC</t>
+  </si>
+  <si>
+    <t>Seven of these from PMC</t>
+  </si>
+  <si>
+    <t>Twelve of these from PMC</t>
+  </si>
+  <si>
+    <t>Thirteen of these from PMC</t>
+  </si>
+  <si>
+    <t>Fourteen of these from PMC</t>
+  </si>
+  <si>
+    <t>Fifteen of these from PMC</t>
+  </si>
+  <si>
+    <t>Sixteen of these from PMC</t>
+  </si>
+  <si>
+    <t>Twenty two of these from PMC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1121,11 +1276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,14 +1341,29 @@
       <c r="D2" s="2">
         <v>43417</v>
       </c>
+      <c r="E2" s="2">
+        <v>43594</v>
+      </c>
       <c r="F2">
-        <v>2319</v>
+        <v>2462</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>82</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43598</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43598</v>
       </c>
       <c r="J2">
-        <v>237</v>
+        <v>244</v>
+      </c>
+      <c r="K2" s="5">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1209,14 +1379,26 @@
       <c r="D3" s="2">
         <v>43470</v>
       </c>
+      <c r="E3" s="2">
+        <v>43594</v>
+      </c>
       <c r="F3">
-        <v>977</v>
+        <v>1043</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43598</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43598</v>
       </c>
       <c r="J3">
         <v>58</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1232,14 +1414,29 @@
       <c r="D4" s="2">
         <v>43417</v>
       </c>
+      <c r="E4" s="2">
+        <v>43593</v>
+      </c>
       <c r="F4">
-        <v>948</v>
+        <v>1004</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43598</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43598</v>
       </c>
       <c r="J4">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="K4" s="5">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1255,14 +1452,29 @@
       <c r="D5" s="2">
         <v>43417</v>
       </c>
+      <c r="E5" s="2">
+        <v>43592</v>
+      </c>
       <c r="F5">
-        <v>705</v>
+        <v>766</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>65</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43597</v>
+      </c>
+      <c r="I5" s="2">
+        <v>43597</v>
       </c>
       <c r="J5">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="K5" s="5">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1278,14 +1490,29 @@
       <c r="D6" s="2">
         <v>43427</v>
       </c>
+      <c r="E6" s="2">
+        <v>43590</v>
+      </c>
       <c r="F6">
-        <v>667</v>
+        <v>725</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>73</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I6" s="2">
+        <v>43597</v>
       </c>
       <c r="J6">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K6" s="5">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1301,14 +1528,29 @@
       <c r="D7" s="2">
         <v>43417</v>
       </c>
+      <c r="E7" s="2">
+        <v>43589</v>
+      </c>
       <c r="F7">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43596</v>
       </c>
       <c r="J7">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K7" s="5">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1331,10 +1573,22 @@
         <v>653</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I8" s="2">
+        <v>43596</v>
       </c>
       <c r="J8">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1357,10 +1611,22 @@
         <v>444</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I9" s="2">
+        <v>43596</v>
       </c>
       <c r="J9">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="K9" s="5">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1383,10 +1649,22 @@
         <v>440</v>
       </c>
       <c r="G10">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H10" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I10" s="2">
+        <v>43595</v>
       </c>
       <c r="J10">
         <v>36</v>
+      </c>
+      <c r="K10" s="5">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1409,10 +1687,22 @@
         <v>426</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H11" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I11" s="2">
+        <v>43595</v>
       </c>
       <c r="J11">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="K11" s="5">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1437,8 +1727,20 @@
       <c r="G12">
         <v>6</v>
       </c>
+      <c r="H12" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I12" s="2">
+        <v>43595</v>
+      </c>
       <c r="J12">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1463,8 +1765,20 @@
       <c r="G13">
         <v>12</v>
       </c>
+      <c r="H13" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I13" s="2">
+        <v>43595</v>
+      </c>
       <c r="J13">
         <v>18</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1489,8 +1803,17 @@
       <c r="G14">
         <v>2</v>
       </c>
+      <c r="H14" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I14" s="2">
+        <v>43595</v>
+      </c>
       <c r="J14">
         <v>11</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1515,8 +1838,17 @@
       <c r="G15">
         <v>6</v>
       </c>
+      <c r="H15" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I15" s="2">
+        <v>43595</v>
+      </c>
       <c r="J15">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1539,13 +1871,25 @@
         <v>272</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H16" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I16" s="2">
+        <v>43595</v>
       </c>
       <c r="J16">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="5">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1567,11 +1911,20 @@
       <c r="G17">
         <v>3</v>
       </c>
+      <c r="H17" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I17" s="2">
+        <v>43595</v>
+      </c>
       <c r="J17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1593,11 +1946,20 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I18" s="2">
+        <v>43595</v>
+      </c>
       <c r="J18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1617,13 +1979,25 @@
         <v>226</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I19" s="2">
+        <v>43595</v>
       </c>
       <c r="J19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="K19" s="5">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1645,11 +2019,20 @@
       <c r="G20">
         <v>0</v>
       </c>
+      <c r="H20" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I20" s="2">
+        <v>43595</v>
+      </c>
       <c r="J20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1669,13 +2052,25 @@
         <v>188</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="H21" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I21" s="2">
+        <v>43595</v>
       </c>
       <c r="J21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="K21" s="5">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1710,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1732,11 +2127,23 @@
       <c r="G23">
         <v>5</v>
       </c>
+      <c r="H23" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I23" s="2">
+        <v>43595</v>
+      </c>
       <c r="J23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="5">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -1758,11 +2165,20 @@
       <c r="G24">
         <v>0</v>
       </c>
+      <c r="H24" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I24" s="2">
+        <v>43595</v>
+      </c>
       <c r="J24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -1797,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1819,11 +2235,23 @@
       <c r="G26">
         <v>9</v>
       </c>
+      <c r="H26" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I26" s="2">
+        <v>43595</v>
+      </c>
       <c r="J26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="5">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -1845,11 +2273,20 @@
       <c r="G27">
         <v>0</v>
       </c>
+      <c r="H27" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I27" s="2">
+        <v>43595</v>
+      </c>
       <c r="J27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1871,11 +2308,20 @@
       <c r="G28">
         <v>4</v>
       </c>
+      <c r="H28" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I28" s="2">
+        <v>43595</v>
+      </c>
       <c r="J28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1897,11 +2343,20 @@
       <c r="G29">
         <v>3</v>
       </c>
+      <c r="H29" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I29" s="2">
+        <v>43595</v>
+      </c>
       <c r="J29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1923,11 +2378,20 @@
       <c r="G30">
         <v>0</v>
       </c>
+      <c r="H30" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I30" s="2">
+        <v>43595</v>
+      </c>
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>168</v>
       </c>
@@ -1949,11 +2413,20 @@
       <c r="G31">
         <v>0</v>
       </c>
+      <c r="H31" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I31" s="2">
+        <v>43595</v>
+      </c>
       <c r="J31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1975,8 +2448,17 @@
       <c r="G32">
         <v>1</v>
       </c>
+      <c r="H32" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I32" s="2">
+        <v>43595</v>
+      </c>
       <c r="J32">
         <v>5</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -2036,8 +2518,17 @@
       <c r="G34">
         <v>0</v>
       </c>
+      <c r="H34" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I34" s="2">
+        <v>43595</v>
+      </c>
       <c r="J34">
         <v>12</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2062,8 +2553,17 @@
       <c r="G35">
         <v>1</v>
       </c>
+      <c r="H35" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I35" s="2">
+        <v>43595</v>
+      </c>
       <c r="J35">
         <v>4</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2088,8 +2588,17 @@
       <c r="G36">
         <v>0</v>
       </c>
+      <c r="H36" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I36" s="2">
+        <v>43595</v>
+      </c>
       <c r="J36">
         <v>4</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2114,8 +2623,17 @@
       <c r="G37">
         <v>7</v>
       </c>
+      <c r="H37" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I37" s="2">
+        <v>43595</v>
+      </c>
       <c r="J37">
         <v>2</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -2140,8 +2658,17 @@
       <c r="G38">
         <v>1</v>
       </c>
+      <c r="H38" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43595</v>
+      </c>
       <c r="J38">
         <v>2</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2166,8 +2693,17 @@
       <c r="G39">
         <v>2</v>
       </c>
+      <c r="H39" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I39" s="2">
+        <v>43595</v>
+      </c>
       <c r="J39">
         <v>2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2190,7 +2726,7 @@
         <v>35</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40" s="2">
         <v>43438</v>
@@ -2236,7 +2772,7 @@
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2260,7 +2796,7 @@
         <v>34</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" s="2">
         <v>43438</v>
@@ -2272,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -2485,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -2520,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2555,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -2590,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2619,13 +3155,13 @@
         <v>43438</v>
       </c>
       <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -2660,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2695,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -2730,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>196</v>
       </c>
@@ -2761,11 +3297,11 @@
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -2800,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2822,11 +3358,20 @@
       <c r="G58">
         <v>0</v>
       </c>
+      <c r="H58" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I58" s="2">
+        <v>43595</v>
+      </c>
       <c r="J58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2848,11 +3393,20 @@
       <c r="G59">
         <v>2</v>
       </c>
+      <c r="H59" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I59" s="2">
+        <v>43595</v>
+      </c>
       <c r="J59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2874,11 +3428,20 @@
       <c r="G60">
         <v>0</v>
       </c>
+      <c r="H60" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I60" s="2">
+        <v>43595</v>
+      </c>
       <c r="J60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2900,12 +3463,23 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="I61" s="2"/>
+      <c r="H61" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I61" s="2">
+        <v>43595</v>
+      </c>
       <c r="J61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="5">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2940,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -2975,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>234</v>
       </c>
@@ -3207,8 +3781,17 @@
       <c r="G70">
         <v>0</v>
       </c>
+      <c r="H70" s="2">
+        <v>43595</v>
+      </c>
+      <c r="I70" s="2">
+        <v>43595</v>
+      </c>
       <c r="J70">
         <v>5</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -4106,7 +4689,7 @@
         <v>4</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="2">
         <v>43438</v>
@@ -8922,5 +9505,6 @@
     <sortCondition ref="A2:A235"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05E6130-1715-094D-A0F2-4E34172D50D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4FD15C-BFA6-7C42-AD31-4032198016F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="640" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,35 +65,7 @@
     </comment>
     <comment ref="K47" authorId="0" shapeId="0" xr:uid="{05C18AF2-3A88-EB46-ABBF-F26895BA1054}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Catherine Schluth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Did not appear in a search but was referenced in another article</t>
-        </r>
+        <t/>
       </text>
     </comment>
     <comment ref="K61" authorId="0" shapeId="0" xr:uid="{B9999643-DB0E-8C47-8EDA-3FBD7E4A0905}">
@@ -924,18 +896,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -956,13 +922,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1280,7 +1245,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1348,7 +1313,7 @@
         <v>2462</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2">
         <v>43598</v>
@@ -1359,7 +1324,7 @@
       <c r="J2">
         <v>244</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>40</v>
       </c>
       <c r="L2" t="s">
@@ -1386,7 +1351,7 @@
         <v>1043</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
         <v>43598</v>
@@ -1432,7 +1397,7 @@
       <c r="J4">
         <v>81</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>26</v>
       </c>
       <c r="L4" t="s">
@@ -1459,7 +1424,7 @@
         <v>766</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2">
         <v>43597</v>
@@ -1470,7 +1435,7 @@
       <c r="J5">
         <v>57</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>23</v>
       </c>
       <c r="L5" t="s">
@@ -1497,7 +1462,7 @@
         <v>725</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2">
         <v>43595</v>
@@ -1508,7 +1473,7 @@
       <c r="J6">
         <v>76</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>26</v>
       </c>
       <c r="L6" t="s">
@@ -1535,7 +1500,7 @@
         <v>687</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2">
         <v>43595</v>
@@ -1546,7 +1511,7 @@
       <c r="J7">
         <v>59</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>22</v>
       </c>
       <c r="L7" t="s">
@@ -1573,7 +1538,7 @@
         <v>653</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2">
         <v>43595</v>
@@ -1584,7 +1549,7 @@
       <c r="J8">
         <v>44</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>4</v>
       </c>
       <c r="L8" t="s">
@@ -1622,7 +1587,7 @@
       <c r="J9">
         <v>59</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>29</v>
       </c>
       <c r="L9" t="s">
@@ -1649,7 +1614,7 @@
         <v>440</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2">
         <v>43595</v>
@@ -1660,7 +1625,7 @@
       <c r="J10">
         <v>36</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>24</v>
       </c>
       <c r="L10" t="s">
@@ -1687,7 +1652,7 @@
         <v>426</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2">
         <v>43595</v>
@@ -1698,8 +1663,8 @@
       <c r="J11">
         <v>30</v>
       </c>
-      <c r="K11" s="5">
-        <v>15</v>
+      <c r="K11" s="4">
+        <v>14</v>
       </c>
       <c r="L11" t="s">
         <v>246</v>
@@ -1736,7 +1701,7 @@
       <c r="J12">
         <v>7</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>2</v>
       </c>
       <c r="L12" t="s">
@@ -1774,7 +1739,7 @@
       <c r="J13">
         <v>18</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>2</v>
       </c>
       <c r="L13" t="s">
@@ -1871,7 +1836,7 @@
         <v>272</v>
       </c>
       <c r="G16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2">
         <v>43595</v>
@@ -1882,7 +1847,7 @@
       <c r="J16">
         <v>38</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>11</v>
       </c>
       <c r="L16" t="s">
@@ -1920,7 +1885,7 @@
       <c r="J17">
         <v>10</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1955,7 +1920,7 @@
       <c r="J18">
         <v>2</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1990,7 +1955,7 @@
       <c r="J19">
         <v>19</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>9</v>
       </c>
       <c r="L19" t="s">
@@ -2052,7 +2017,7 @@
         <v>188</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2">
         <v>43595</v>
@@ -2063,7 +2028,7 @@
       <c r="J21">
         <v>14</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>4</v>
       </c>
       <c r="L21" t="s">
@@ -2125,7 +2090,7 @@
         <v>134</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2">
         <v>43595</v>
@@ -2136,7 +2101,7 @@
       <c r="J23">
         <v>7</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>2</v>
       </c>
       <c r="L23" t="s">
@@ -2233,7 +2198,7 @@
         <v>104</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H26" s="2">
         <v>43595</v>
@@ -2244,7 +2209,7 @@
       <c r="J26">
         <v>8</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>3</v>
       </c>
       <c r="L26" t="s">
@@ -2352,7 +2317,7 @@
       <c r="J29">
         <v>3</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2457,7 +2422,7 @@
       <c r="J32">
         <v>5</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2702,7 +2667,7 @@
       <c r="J39">
         <v>2</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2761,7 +2726,7 @@
         <v>34</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H41" s="2">
         <v>43438</v>
@@ -2772,7 +2737,7 @@
       <c r="J41">
         <v>1</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2831,7 +2796,7 @@
         <v>32</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" s="2">
         <v>43438</v>
@@ -2947,7 +2912,7 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2982,8 +2947,8 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="4">
-        <v>1</v>
+      <c r="K47" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3286,7 +3251,7 @@
         <v>17</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" s="2">
         <v>43438</v>
@@ -3297,7 +3262,7 @@
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3391,7 +3356,7 @@
         <v>16</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="2">
         <v>43595</v>
@@ -3472,7 +3437,7 @@
       <c r="J61">
         <v>2</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="4">
         <v>2</v>
       </c>
       <c r="L61" t="s">
@@ -3791,7 +3756,7 @@
         <v>5</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">

--- a/systematic lit review progress notes.xlsx
+++ b/systematic lit review progress notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4FD15C-BFA6-7C42-AD31-4032198016F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E870C7A-CE3F-7C4D-A9DF-CCF8A074A3D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,7 @@
       </text>
     </comment>
     <comment ref="K47" authorId="0" shapeId="0" xr:uid="{05C18AF2-3A88-EB46-ABBF-F26895BA1054}">
-      <text>
-        <t/>
-      </text>
+      <text/>
     </comment>
     <comment ref="K61" authorId="0" shapeId="0" xr:uid="{B9999643-DB0E-8C47-8EDA-3FBD7E4A0905}">
       <text>
@@ -1245,7 +1243,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1422,7 @@
         <v>766</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2">
         <v>43597</v>
@@ -1728,7 +1726,7 @@
         <v>329</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2">
         <v>43595</v>
@@ -2017,7 +2015,7 @@
         <v>188</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2">
         <v>43595</v>
@@ -2586,7 +2584,7 @@
         <v>37</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H37" s="2">
         <v>43595</v>
